--- a/Data_clean/MCAS/Estados_US/Edos_USA_2021/MONTANA_2021.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2021/MONTANA_2021.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D138"/>
+  <dimension ref="A1:D132"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -602,7 +602,7 @@
     <row r="17">
       <c r="B17" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C17">
@@ -680,7 +680,7 @@
     <row r="23">
       <c r="B23" t="inlineStr">
         <is>
-          <t>Valle de Zaragoza</t>
+          <t>Valle De Zaragoza</t>
         </is>
       </c>
       <c r="C23">
@@ -750,7 +750,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -877,7 +877,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1074,7 +1074,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C51">
@@ -1087,7 +1087,7 @@
     <row r="52">
       <c r="B52" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C52">
@@ -1100,7 +1100,7 @@
     <row r="53">
       <c r="B53" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C53">
@@ -1113,7 +1113,7 @@
     <row r="54">
       <c r="B54" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C54">
@@ -1126,7 +1126,7 @@
     <row r="55">
       <c r="B55" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C55">
@@ -1139,7 +1139,7 @@
     <row r="56">
       <c r="B56" t="inlineStr">
         <is>
-          <t>Zihuatanejo de Azueta</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C56">
@@ -1178,7 +1178,7 @@
     <row r="59">
       <c r="B59" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C59">
@@ -1191,7 +1191,7 @@
     <row r="60">
       <c r="B60" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C60">
@@ -1235,7 +1235,7 @@
     <row r="63">
       <c r="B63" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C63">
@@ -1248,7 +1248,7 @@
     <row r="64">
       <c r="B64" t="inlineStr">
         <is>
-          <t>Progreso de Obregón</t>
+          <t>Progreso De Obregón</t>
         </is>
       </c>
       <c r="C64">
@@ -1292,7 +1292,7 @@
     <row r="67">
       <c r="B67" t="inlineStr">
         <is>
-          <t>Autlán de Navarro</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C67">
@@ -1370,7 +1370,7 @@
     <row r="73">
       <c r="B73" t="inlineStr">
         <is>
-          <t>San Miguel el Alto</t>
+          <t>San Miguel El Alto</t>
         </is>
       </c>
       <c r="C73">
@@ -1409,7 +1409,7 @@
     <row r="76">
       <c r="B76" t="inlineStr">
         <is>
-          <t>Tizapán el Alto</t>
+          <t>Tizapán El Alto</t>
         </is>
       </c>
       <c r="C76">
@@ -1422,7 +1422,7 @@
     <row r="77">
       <c r="B77" t="inlineStr">
         <is>
-          <t>Unión de Tula</t>
+          <t>Unión De Tula</t>
         </is>
       </c>
       <c r="C77">
@@ -1567,7 +1567,7 @@
     <row r="87">
       <c r="B87" t="inlineStr">
         <is>
-          <t>MonteMorelos</t>
+          <t>Montemorelos</t>
         </is>
       </c>
       <c r="C87">
@@ -1611,7 +1611,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C90">
@@ -2054,7 +2054,7 @@
     <row r="121">
       <c r="B121" t="inlineStr">
         <is>
-          <t>Amatlán de los Reyes</t>
+          <t>Amatlán De Los Reyes</t>
         </is>
       </c>
       <c r="C121">
@@ -2163,7 +2163,7 @@
     <row r="129">
       <c r="B129" t="inlineStr">
         <is>
-          <t>Tlaltenango de Sánchez Román</t>
+          <t>Tlaltenango De Sánchez Román</t>
         </is>
       </c>
       <c r="C129">
@@ -2210,41 +2210,6 @@
       </c>
       <c r="D132">
         <v>1</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 701,861</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="inlineStr">
-        <is>
-          <t>Mayo de 2022</t>
-        </is>
       </c>
     </row>
   </sheetData>

--- a/Data_clean/MCAS/Estados_US/Edos_USA_2021/MONTANA_2021.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2021/MONTANA_2021.xlsx
@@ -398,6 +398,11 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>Calvillo</t>
@@ -411,6 +416,11 @@
       </c>
     </row>
     <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B4" t="inlineStr">
         <is>
           <t>Total</t>
@@ -442,6 +452,11 @@
       </c>
     </row>
     <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B6" t="inlineStr">
         <is>
           <t>Tijuana</t>
@@ -455,6 +470,11 @@
       </c>
     </row>
     <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B7" t="inlineStr">
         <is>
           <t>Total</t>
@@ -486,6 +506,11 @@
       </c>
     </row>
     <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Campeche</t>
+        </is>
+      </c>
       <c r="B9" t="inlineStr">
         <is>
           <t>Total</t>
@@ -517,6 +542,11 @@
       </c>
     </row>
     <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B11" t="inlineStr">
         <is>
           <t>Huixtla</t>
@@ -530,6 +560,11 @@
       </c>
     </row>
     <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B12" t="inlineStr">
         <is>
           <t>Ocosingo</t>
@@ -543,6 +578,11 @@
       </c>
     </row>
     <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B13" t="inlineStr">
         <is>
           <t>Total</t>
@@ -574,6 +614,11 @@
       </c>
     </row>
     <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B15" t="inlineStr">
         <is>
           <t>Casas Grandes</t>
@@ -587,6 +632,11 @@
       </c>
     </row>
     <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B16" t="inlineStr">
         <is>
           <t>Gómez Farías</t>
@@ -600,6 +650,11 @@
       </c>
     </row>
     <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B17" t="inlineStr">
         <is>
           <t>Hidalgo Del Parral</t>
@@ -613,6 +668,11 @@
       </c>
     </row>
     <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B18" t="inlineStr">
         <is>
           <t>Juárez</t>
@@ -626,6 +686,11 @@
       </c>
     </row>
     <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B19" t="inlineStr">
         <is>
           <t>Madera</t>
@@ -639,6 +704,11 @@
       </c>
     </row>
     <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B20" t="inlineStr">
         <is>
           <t>Nuevo Casas Grandes</t>
@@ -652,6 +722,11 @@
       </c>
     </row>
     <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B21" t="inlineStr">
         <is>
           <t>Rosario</t>
@@ -665,6 +740,11 @@
       </c>
     </row>
     <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B22" t="inlineStr">
         <is>
           <t>Saucillo</t>
@@ -678,6 +758,11 @@
       </c>
     </row>
     <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B23" t="inlineStr">
         <is>
           <t>Valle De Zaragoza</t>
@@ -691,6 +776,11 @@
       </c>
     </row>
     <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B24" t="inlineStr">
         <is>
           <t>Total</t>
@@ -722,6 +812,11 @@
       </c>
     </row>
     <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Colima</t>
+        </is>
+      </c>
       <c r="B26" t="inlineStr">
         <is>
           <t>Comala</t>
@@ -735,6 +830,11 @@
       </c>
     </row>
     <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Colima</t>
+        </is>
+      </c>
       <c r="B27" t="inlineStr">
         <is>
           <t>Total</t>
@@ -766,6 +866,11 @@
       </c>
     </row>
     <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B29" t="inlineStr">
         <is>
           <t>Azcapotzalco</t>
@@ -779,6 +884,11 @@
       </c>
     </row>
     <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B30" t="inlineStr">
         <is>
           <t>Coyoacán</t>
@@ -792,6 +902,11 @@
       </c>
     </row>
     <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B31" t="inlineStr">
         <is>
           <t>Cuauhtémoc</t>
@@ -805,6 +920,11 @@
       </c>
     </row>
     <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B32" t="inlineStr">
         <is>
           <t>Iztapalapa</t>
@@ -818,6 +938,11 @@
       </c>
     </row>
     <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B33" t="inlineStr">
         <is>
           <t>Total</t>
@@ -849,6 +974,11 @@
       </c>
     </row>
     <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B35" t="inlineStr">
         <is>
           <t>Gómez Palacio</t>
@@ -862,6 +992,11 @@
       </c>
     </row>
     <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B36" t="inlineStr">
         <is>
           <t>Total</t>
@@ -893,6 +1028,11 @@
       </c>
     </row>
     <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B38" t="inlineStr">
         <is>
           <t>Coatepec Harinas</t>
@@ -906,6 +1046,11 @@
       </c>
     </row>
     <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B39" t="inlineStr">
         <is>
           <t>Tenancingo</t>
@@ -919,6 +1064,11 @@
       </c>
     </row>
     <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B40" t="inlineStr">
         <is>
           <t>Tlatlaya</t>
@@ -932,6 +1082,11 @@
       </c>
     </row>
     <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B41" t="inlineStr">
         <is>
           <t>Toluca</t>
@@ -945,6 +1100,11 @@
       </c>
     </row>
     <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B42" t="inlineStr">
         <is>
           <t>Tonatico</t>
@@ -958,6 +1118,11 @@
       </c>
     </row>
     <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B43" t="inlineStr">
         <is>
           <t>Total</t>
@@ -989,6 +1154,11 @@
       </c>
     </row>
     <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B45" t="inlineStr">
         <is>
           <t>Doctor Mora</t>
@@ -1002,6 +1172,11 @@
       </c>
     </row>
     <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B46" t="inlineStr">
         <is>
           <t>Irapuato</t>
@@ -1015,6 +1190,11 @@
       </c>
     </row>
     <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B47" t="inlineStr">
         <is>
           <t>León</t>
@@ -1028,6 +1208,11 @@
       </c>
     </row>
     <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B48" t="inlineStr">
         <is>
           <t>Pénjamo</t>
@@ -1041,6 +1226,11 @@
       </c>
     </row>
     <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B49" t="inlineStr">
         <is>
           <t>Villagrán</t>
@@ -1054,6 +1244,11 @@
       </c>
     </row>
     <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B50" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1085,6 +1280,11 @@
       </c>
     </row>
     <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B52" t="inlineStr">
         <is>
           <t>Ayutla De Los Libres</t>
@@ -1098,6 +1298,11 @@
       </c>
     </row>
     <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B53" t="inlineStr">
         <is>
           <t>Chilpancingo De Los Bravo</t>
@@ -1111,6 +1316,11 @@
       </c>
     </row>
     <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B54" t="inlineStr">
         <is>
           <t>Coyuca De Benítez</t>
@@ -1124,6 +1334,11 @@
       </c>
     </row>
     <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B55" t="inlineStr">
         <is>
           <t>Cutzamala De Pinzón</t>
@@ -1137,6 +1352,11 @@
       </c>
     </row>
     <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B56" t="inlineStr">
         <is>
           <t>Zihuatanejo De Azueta</t>
@@ -1150,6 +1370,11 @@
       </c>
     </row>
     <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B57" t="inlineStr">
         <is>
           <t>San Luis Acatlán</t>
@@ -1163,6 +1388,11 @@
       </c>
     </row>
     <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B58" t="inlineStr">
         <is>
           <t>San Marcos</t>
@@ -1176,6 +1406,11 @@
       </c>
     </row>
     <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B59" t="inlineStr">
         <is>
           <t>Taxco De Alarcón</t>
@@ -1189,6 +1424,11 @@
       </c>
     </row>
     <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B60" t="inlineStr">
         <is>
           <t>Técpan De Galeana</t>
@@ -1202,6 +1442,11 @@
       </c>
     </row>
     <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B61" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1233,6 +1478,11 @@
       </c>
     </row>
     <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B63" t="inlineStr">
         <is>
           <t>Pachuca De Soto</t>
@@ -1246,6 +1496,11 @@
       </c>
     </row>
     <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B64" t="inlineStr">
         <is>
           <t>Progreso De Obregón</t>
@@ -1259,6 +1514,11 @@
       </c>
     </row>
     <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B65" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1290,6 +1550,11 @@
       </c>
     </row>
     <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B67" t="inlineStr">
         <is>
           <t>Autlán De Navarro</t>
@@ -1303,6 +1568,11 @@
       </c>
     </row>
     <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B68" t="inlineStr">
         <is>
           <t>Ayutla</t>
@@ -1316,6 +1586,11 @@
       </c>
     </row>
     <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B69" t="inlineStr">
         <is>
           <t>El Grullo</t>
@@ -1329,6 +1604,11 @@
       </c>
     </row>
     <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B70" t="inlineStr">
         <is>
           <t>Guadalajara</t>
@@ -1342,6 +1622,11 @@
       </c>
     </row>
     <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B71" t="inlineStr">
         <is>
           <t>Ocotlán</t>
@@ -1355,6 +1640,11 @@
       </c>
     </row>
     <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B72" t="inlineStr">
         <is>
           <t>Puerto Vallarta</t>
@@ -1368,6 +1658,11 @@
       </c>
     </row>
     <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B73" t="inlineStr">
         <is>
           <t>San Miguel El Alto</t>
@@ -1381,6 +1676,11 @@
       </c>
     </row>
     <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B74" t="inlineStr">
         <is>
           <t>Sayula</t>
@@ -1394,6 +1694,11 @@
       </c>
     </row>
     <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B75" t="inlineStr">
         <is>
           <t>Tequila</t>
@@ -1407,6 +1712,11 @@
       </c>
     </row>
     <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B76" t="inlineStr">
         <is>
           <t>Tizapán El Alto</t>
@@ -1420,6 +1730,11 @@
       </c>
     </row>
     <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B77" t="inlineStr">
         <is>
           <t>Unión De Tula</t>
@@ -1433,6 +1748,11 @@
       </c>
     </row>
     <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B78" t="inlineStr">
         <is>
           <t>Villa Purificación</t>
@@ -1446,6 +1766,11 @@
       </c>
     </row>
     <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B79" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1477,6 +1802,11 @@
       </c>
     </row>
     <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B81" t="inlineStr">
         <is>
           <t>Zitácuaro</t>
@@ -1490,6 +1820,11 @@
       </c>
     </row>
     <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B82" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1521,6 +1856,11 @@
       </c>
     </row>
     <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B84" t="inlineStr">
         <is>
           <t>Tepic</t>
@@ -1534,6 +1874,11 @@
       </c>
     </row>
     <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B85" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1565,6 +1910,11 @@
       </c>
     </row>
     <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B87" t="inlineStr">
         <is>
           <t>Montemorelos</t>
@@ -1578,6 +1928,11 @@
       </c>
     </row>
     <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B88" t="inlineStr">
         <is>
           <t>Monterrey</t>
@@ -1591,6 +1946,11 @@
       </c>
     </row>
     <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B89" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1622,6 +1982,11 @@
       </c>
     </row>
     <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B91" t="inlineStr">
         <is>
           <t>Matías Romero Avendaño</t>
@@ -1635,6 +2000,11 @@
       </c>
     </row>
     <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B92" t="inlineStr">
         <is>
           <t>Salina Cruz</t>
@@ -1648,6 +2018,11 @@
       </c>
     </row>
     <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B93" t="inlineStr">
         <is>
           <t>San Lucas Zoquiápam</t>
@@ -1661,6 +2036,11 @@
       </c>
     </row>
     <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B94" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1692,6 +2072,11 @@
       </c>
     </row>
     <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B96" t="inlineStr">
         <is>
           <t>Cuyoaco</t>
@@ -1705,6 +2090,11 @@
       </c>
     </row>
     <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B97" t="inlineStr">
         <is>
           <t>Tehuacán</t>
@@ -1718,6 +2108,11 @@
       </c>
     </row>
     <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B98" t="inlineStr">
         <is>
           <t>Vicente Guerrero</t>
@@ -1731,6 +2126,11 @@
       </c>
     </row>
     <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B99" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1762,6 +2162,11 @@
       </c>
     </row>
     <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B101" t="inlineStr">
         <is>
           <t>Querétaro</t>
@@ -1775,6 +2180,11 @@
       </c>
     </row>
     <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B102" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1806,6 +2216,11 @@
       </c>
     </row>
     <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B104" t="inlineStr">
         <is>
           <t>Salinas</t>
@@ -1819,6 +2234,11 @@
       </c>
     </row>
     <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B105" t="inlineStr">
         <is>
           <t>San Luis Potosí</t>
@@ -1832,6 +2252,11 @@
       </c>
     </row>
     <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B106" t="inlineStr">
         <is>
           <t>Santo Domingo</t>
@@ -1845,6 +2270,11 @@
       </c>
     </row>
     <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B107" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1876,6 +2306,11 @@
       </c>
     </row>
     <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B109" t="inlineStr">
         <is>
           <t>Salvador Alvarado</t>
@@ -1889,6 +2324,11 @@
       </c>
     </row>
     <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B110" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1920,6 +2360,11 @@
       </c>
     </row>
     <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B112" t="inlineStr">
         <is>
           <t>Nogales</t>
@@ -1933,6 +2378,11 @@
       </c>
     </row>
     <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B113" t="inlineStr">
         <is>
           <t>Ures</t>
@@ -1946,6 +2396,11 @@
       </c>
     </row>
     <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B114" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1977,6 +2432,11 @@
       </c>
     </row>
     <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B116" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2008,6 +2468,11 @@
       </c>
     </row>
     <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B118" t="inlineStr">
         <is>
           <t>Xaltocan</t>
@@ -2021,6 +2486,11 @@
       </c>
     </row>
     <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B119" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2052,6 +2522,11 @@
       </c>
     </row>
     <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B121" t="inlineStr">
         <is>
           <t>Amatlán De Los Reyes</t>
@@ -2065,6 +2540,11 @@
       </c>
     </row>
     <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B122" t="inlineStr">
         <is>
           <t>Calcahualco</t>
@@ -2078,6 +2558,11 @@
       </c>
     </row>
     <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B123" t="inlineStr">
         <is>
           <t>Córdoba</t>
@@ -2091,6 +2576,11 @@
       </c>
     </row>
     <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B124" t="inlineStr">
         <is>
           <t>Coscomatepec</t>
@@ -2104,6 +2594,11 @@
       </c>
     </row>
     <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B125" t="inlineStr">
         <is>
           <t>Huatusco</t>
@@ -2117,6 +2612,11 @@
       </c>
     </row>
     <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B126" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2148,6 +2648,11 @@
       </c>
     </row>
     <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B128" t="inlineStr">
         <is>
           <t>Juan Aldama</t>
@@ -2161,6 +2666,11 @@
       </c>
     </row>
     <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B129" t="inlineStr">
         <is>
           <t>Tlaltenango De Sánchez Román</t>
@@ -2174,6 +2684,11 @@
       </c>
     </row>
     <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B130" t="inlineStr">
         <is>
           <t>Zacatecas</t>
@@ -2187,6 +2702,11 @@
       </c>
     </row>
     <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B131" t="inlineStr">
         <is>
           <t>Total</t>
